--- a/ExampleIG/output/StructureDefinition-hn-extension-first-available-free-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-first-available-free-slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-first-available-free-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-first-available-free-slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-first-available-free-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-first-available-free-slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
